--- a/Addition_Unit/Documentation/ProjectLog-G12-4671-350-1257.xlsx
+++ b/Addition_Unit/Documentation/ProjectLog-G12-4671-350-1257.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015934EF-DDC4-4AD8-84B5-75BA64A68DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC3611-6022-4C4D-9DD0-68359347BE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="uphip+fyQmgTbQWVslgKndYGTCUT2nMCnU8pTyuiPxh9t3MkaNQeLeeV1eDZUH8uYM8JtsIZJzZApwnnbRUEcA==" workbookSaltValue="PVE5+bPUyqyV9jE5EaqSxw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -420,10 +420,13 @@
     <t>G12</t>
   </si>
   <si>
-    <t>12/10/2025</t>
+    <t>Started Ladner-Fischer adder</t>
   </si>
   <si>
-    <t>Cost Analysis of design candidates</t>
+    <t>Finished Ladner-Fischer adder</t>
+  </si>
+  <si>
+    <t>Finished Kogge-Stone adder</t>
   </si>
 </sst>
 </file>
@@ -1140,9 +1143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1180,7 +1183,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1286,7 +1289,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1428,7 +1431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1438,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E6E40-83BD-4CBB-97D3-102021CD8368}">
   <dimension ref="A1:I783"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,49 +1555,69 @@
       <c r="B7" s="12">
         <v>4671</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>22</v>
+      <c r="C7" s="18">
+        <v>45962</v>
       </c>
       <c r="D7" s="19">
-        <v>0.83333333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E7" s="20">
-        <v>0.86458333333333337</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
-        <v>0.75</v>
+        <v>1.2500000000000009</v>
       </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="13">
+        <v>4671</v>
+      </c>
+      <c r="C8" s="21">
+        <v>45974</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.6875</v>
+      </c>
       <c r="F8" s="34"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="26">
         <f>(E8-D8)*24</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="13">
+        <v>4671</v>
+      </c>
+      <c r="C9" s="21">
+        <v>45974</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="26">
         <f t="shared" ref="H9:H72" si="1">(E9-D9)*24</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2511,7 +2534,7 @@
       <c r="F80" s="29"/>
       <c r="H80" s="28">
         <f>SUM(H7:H79)</f>
-        <v>0.75</v>
+        <v>4.2500000000000009</v>
       </c>
     </row>
     <row r="81" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
